--- a/Admin/Buyer/ZA 6755 show proof of verified companies in Edit company page.xlsx
+++ b/Admin/Buyer/ZA 6755 show proof of verified companies in Edit company page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Admin\Buyer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Buyer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D18185-AF21-45BD-AE7E-74075252E1D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85902A5-26BD-4292-9103-58A26DE5853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="510" windowWidth="20730" windowHeight="10530" xr2:uid="{12B112D0-3BB4-4ED6-9465-15D568CCFFC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{12B112D0-3BB4-4ED6-9465-15D568CCFFC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88FF457-AB32-4245-87DB-E84F66EB6B57}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,18 +1108,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1142,14 +1142,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA26F95-65E8-4633-9AF6-5A9B150C31DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60B8A198-4B6A-4EB6-92F5-D48349C41A1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1164,4 +1156,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA26F95-65E8-4633-9AF6-5A9B150C31DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>